--- a/biology/Botanique/Docteur_Jules_Guyot/Docteur_Jules_Guyot.xlsx
+++ b/biology/Botanique/Docteur_Jules_Guyot/Docteur_Jules_Guyot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La 'Docteur Jules Guyot' est un cultivar de poires.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>"Guyot",
 "Jules Guyot",
@@ -519,7 +533,7 @@
 "Poire Dr. Jules Guyot" ou "Dr. Jules Guyot",
 "Limonera" (Espagne),
 "Llimonera" (en catalan),
-French Bartlett (États-Unis, Canada)[1].</t>
+French Bartlett (États-Unis, Canada).</t>
         </is>
       </c>
     </row>
@@ -547,9 +561,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette poire a été créée en 1870, par Ernest Baltet, et nommée en hommage au Docteur Jules Guyot[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette poire a été créée en 1870, par Ernest Baltet, et nommée en hommage au Docteur Jules Guyot.
 </t>
         </is>
       </c>
@@ -580,12 +596,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Époque de floraison
-La floraison a lieu début avril.
-Mise à fruit
-Précoce et rapide, elle mûrit assez rapidement sur l'arbre ; il faut la ramasser lorsqu'elle est encore verte et la faire mûrir chez soi.
-Pollinisateurs recommandés
-Williams, Clapp's Favourite, Beurré Bosc, Beurré d'Hardenpont, Conférence, Doyenné du Comice, Légipont.
+          <t>Époque de floraison</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu début avril.
 </t>
         </is>
       </c>
@@ -611,10 +628,86 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Arbre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mise à fruit</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Précoce et rapide, elle mûrit assez rapidement sur l'arbre ; il faut la ramasser lorsqu'elle est encore verte et la faire mûrir chez soi.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Docteur_Jules_Guyot</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Docteur_Jules_Guyot</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Arbre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Pollinisateurs recommandés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Williams, Clapp's Favourite, Beurré Bosc, Beurré d'Hardenpont, Conférence, Doyenné du Comice, Légipont.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Docteur_Jules_Guyot</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Docteur_Jules_Guyot</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Productivité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Production de 30 tonnes par hectare environ, avec des fruits d'un calibre de 65 mm de moyenne.
 Productivité optimale sur des arbres de 10 ans minimum.
@@ -622,31 +715,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Docteur_Jules_Guyot</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Docteur_Jules_Guyot</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Docteur_Jules_Guyot</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Docteur_Jules_Guyot</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un fruit à peau lisse, peu allongé, d'un calibre moyen de 65 mm.
 Le code PLU de la poire Guyot est #3021.
@@ -654,62 +749,66 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Docteur_Jules_Guyot</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Docteur_Jules_Guyot</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Docteur_Jules_Guyot</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Docteur_Jules_Guyot</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Appréciations générales</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Résistant à la tavelure, ce fruit remplace dans certaines régions la poire Williams, devenue sensible à cette maladie[2].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Résistant à la tavelure, ce fruit remplace dans certaines régions la poire Williams, devenue sensible à cette maladie.
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Docteur_Jules_Guyot</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Docteur_Jules_Guyot</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Docteur_Jules_Guyot</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Docteur_Jules_Guyot</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Observations</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Dr Jules Guyot, INFEL 1445A
 </t>
